--- a/exp2/case03/report/motivation/perceived-choice/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/perceived-choice/MeasurementModel.xlsx
@@ -4598,25 +4598,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="273">
-        <v>1.1336943990449728</v>
+        <v>1.1531371505144068</v>
       </c>
       <c r="C33" t="n" s="274">
-        <v>0.5543298545307752</v>
+        <v>0.6157948239841665</v>
       </c>
       <c r="D33" t="n" s="275">
-        <v>0.5793531221886854</v>
+        <v>0.5380299439925798</v>
       </c>
       <c r="E33" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="277">
-        <v>1.1570043668826488</v>
+        <v>1.1745584379819083</v>
       </c>
       <c r="G33" t="n" s="278">
-        <v>0.7896170941944582</v>
+        <v>0.8631188712221226</v>
       </c>
       <c r="H33" t="n" s="279">
-        <v>0.4297514220320769</v>
+        <v>0.3880721132785804</v>
       </c>
       <c r="I33" t="n" s="280">
         <v>1.0</v>
@@ -4627,25 +4627,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="273">
-        <v>0.9469525618966289</v>
+        <v>0.9540274058012942</v>
       </c>
       <c r="C34" t="n" s="274">
-        <v>-0.1532834041880088</v>
+        <v>-0.1315101165748055</v>
       </c>
       <c r="D34" t="n" s="275">
-        <v>0.8781747875502813</v>
+        <v>0.8953717842104858</v>
       </c>
       <c r="E34" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="277">
-        <v>1.0641339015857203</v>
+        <v>1.0683625241471795</v>
       </c>
       <c r="G34" t="n" s="278">
-        <v>0.35204553435635005</v>
+        <v>0.36911360317868613</v>
       </c>
       <c r="H34" t="n" s="279">
-        <v>0.7248041140742563</v>
+        <v>0.7120430499194081</v>
       </c>
       <c r="I34" t="n" s="280">
         <v>1.0</v>
@@ -4656,25 +4656,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="273">
-        <v>0.9703064373149828</v>
+        <v>0.9724817971351943</v>
       </c>
       <c r="C35" t="n" s="274">
-        <v>-0.057622379569548944</v>
+        <v>-0.04703014405683219</v>
       </c>
       <c r="D35" t="n" s="275">
-        <v>0.9540494229700119</v>
+        <v>0.9624892026198246</v>
       </c>
       <c r="E35" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="277">
-        <v>1.0533763592061514</v>
+        <v>1.0550148250554265</v>
       </c>
       <c r="G35" t="n" s="278">
-        <v>0.3052118589966907</v>
+        <v>0.3079883789368562</v>
       </c>
       <c r="H35" t="n" s="279">
-        <v>0.7602048008906686</v>
+        <v>0.7580911750865935</v>
       </c>
       <c r="I35" t="n" s="280">
         <v>1.0</v>
@@ -4685,25 +4685,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="273">
-        <v>0.9109192781903379</v>
+        <v>0.9465696019604709</v>
       </c>
       <c r="C36" t="n" s="274">
-        <v>-0.32348247919463236</v>
+        <v>-0.20939201103304303</v>
       </c>
       <c r="D36" t="n" s="275">
-        <v>0.7463298744569883</v>
+        <v>0.8341422288123403</v>
       </c>
       <c r="E36" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F36" t="n" s="277">
-        <v>0.8920467859514529</v>
+        <v>0.911022993869163</v>
       </c>
       <c r="G36" t="n" s="278">
-        <v>-0.5075247567300906</v>
+        <v>-0.40877327291125737</v>
       </c>
       <c r="H36" t="n" s="279">
-        <v>0.6117866702643294</v>
+        <v>0.6827060556602114</v>
       </c>
       <c r="I36" t="n" s="280">
         <v>1.0</v>
@@ -4714,25 +4714,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="273">
-        <v>0.8722004048813474</v>
+        <v>0.8541590886734036</v>
       </c>
       <c r="C37" t="n" s="274">
-        <v>-0.4836826003489177</v>
+        <v>-0.5626214072664344</v>
       </c>
       <c r="D37" t="n" s="275">
-        <v>0.6286111435069643</v>
+        <v>0.5736927116952224</v>
       </c>
       <c r="E37" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="277">
-        <v>0.9493042552179921</v>
+        <v>0.9270224784113368</v>
       </c>
       <c r="G37" t="n" s="278">
-        <v>-0.21218023771013808</v>
+        <v>-0.3262081876160389</v>
       </c>
       <c r="H37" t="n" s="279">
-        <v>0.8319664237561011</v>
+        <v>0.7442668471085652</v>
       </c>
       <c r="I37" t="n" s="280">
         <v>1.0</v>
@@ -4743,28 +4743,28 @@
         <v>58</v>
       </c>
       <c r="B38" t="n" s="273">
-        <v>0.7529302165600577</v>
+        <v>0.6808532648301396</v>
       </c>
       <c r="C38" t="n" s="274">
-        <v>4.151693954890922</v>
+        <v>4.11127330502098</v>
       </c>
       <c r="D38" t="n" s="275">
-        <v>3.3002340308981793E-5</v>
+        <v>3.9348309382294614E-5</v>
       </c>
       <c r="E38" t="n" s="276">
-        <v>2.9702106278083615E-4</v>
+        <v>3.541347844406515E-4</v>
       </c>
       <c r="F38" t="n" s="277">
-        <v>1.6108007054295475</v>
+        <v>1.629073099220285</v>
       </c>
       <c r="G38" t="n" s="278">
-        <v>2.946791891937728</v>
+        <v>3.0665508120213714</v>
       </c>
       <c r="H38" t="n" s="279">
-        <v>0.0032108921641952766</v>
+        <v>0.0021654400005355467</v>
       </c>
       <c r="I38" t="n" s="280">
-        <v>0.01926535298517166</v>
+        <v>0.01299264000321328</v>
       </c>
     </row>
     <row r="39">
@@ -4772,28 +4772,28 @@
         <v>59</v>
       </c>
       <c r="B39" t="n" s="273">
-        <v>1.503709130342519</v>
+        <v>1.451431867827864</v>
       </c>
       <c r="C39" t="n" s="274">
-        <v>0.7517594674381611</v>
+        <v>0.7129349529426544</v>
       </c>
       <c r="D39" t="n" s="275">
-        <v>0.45219572115908163</v>
+        <v>0.4758860090804068</v>
       </c>
       <c r="E39" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="277">
-        <v>1.6221786967859124</v>
+        <v>1.6402012574800926</v>
       </c>
       <c r="G39" t="n" s="278">
-        <v>5.07521925460582</v>
+        <v>5.2284149341850386</v>
       </c>
       <c r="H39" t="n" s="279">
-        <v>3.870494369719061E-7</v>
+        <v>1.7096946471923234E-7</v>
       </c>
       <c r="I39" t="n" s="280">
-        <v>3.870494369719061E-6</v>
+        <v>1.538725182473091E-6</v>
       </c>
     </row>
     <row r="40">
@@ -4801,28 +4801,28 @@
         <v>60</v>
       </c>
       <c r="B40" t="n" s="273">
-        <v>1.4308386686425734</v>
+        <v>1.4460610149311828</v>
       </c>
       <c r="C40" t="n" s="274">
-        <v>0.7570391934695598</v>
+        <v>0.7580003329733832</v>
       </c>
       <c r="D40" t="n" s="275">
-        <v>0.44902638174204934</v>
+        <v>0.44845078339758393</v>
       </c>
       <c r="E40" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="277">
-        <v>1.4235659404604926</v>
+        <v>1.4499124405958</v>
       </c>
       <c r="G40" t="n" s="278">
-        <v>4.230002312847657</v>
+        <v>4.466792353947105</v>
       </c>
       <c r="H40" t="n" s="279">
-        <v>2.3368890924090494E-5</v>
+        <v>7.940112968179768E-6</v>
       </c>
       <c r="I40" t="n" s="280">
-        <v>1.8695112739272395E-4</v>
+        <v>6.352090374543815E-5</v>
       </c>
     </row>
     <row r="41">
@@ -4830,28 +4830,28 @@
         <v>61</v>
       </c>
       <c r="B41" t="n" s="273">
-        <v>1.5170187960158592</v>
+        <v>1.8100692703613113</v>
       </c>
       <c r="C41" t="n" s="274">
-        <v>0.9997438116014264</v>
+        <v>1.0766762217192252</v>
       </c>
       <c r="D41" t="n" s="275">
-        <v>0.31743450392888883</v>
+        <v>0.2816249388992934</v>
       </c>
       <c r="E41" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F41" t="n" s="277">
-        <v>1.352065250387614</v>
+        <v>1.40887576196974</v>
       </c>
       <c r="G41" t="n" s="278">
-        <v>4.5759438000524515</v>
+        <v>5.283750503782566</v>
       </c>
       <c r="H41" t="n" s="279">
-        <v>4.7407781009152625E-6</v>
+        <v>1.2656559489124892E-7</v>
       </c>
       <c r="I41" t="n" s="280">
-        <v>4.266700290823736E-5</v>
+        <v>1.2656559489124892E-6</v>
       </c>
     </row>
     <row r="42">
@@ -4859,28 +4859,28 @@
         <v>62</v>
       </c>
       <c r="B42" t="n" s="273">
-        <v>1.226168363218609</v>
+        <v>1.2857101241774531</v>
       </c>
       <c r="C42" t="n" s="274">
-        <v>6.804503649782633</v>
+        <v>6.791996875451113</v>
       </c>
       <c r="D42" t="n" s="275">
-        <v>1.0139821803383988E-11</v>
+        <v>1.105919448213051E-11</v>
       </c>
       <c r="E42" t="n" s="276">
-        <v>1.0139821803383988E-10</v>
+        <v>1.105919448213051E-10</v>
       </c>
       <c r="F42" t="n" s="277">
-        <v>1.4557664656756506</v>
+        <v>1.4743447075614675</v>
       </c>
       <c r="G42" t="n" s="278">
-        <v>5.489449403050499</v>
+        <v>5.658257121202168</v>
       </c>
       <c r="H42" t="n" s="279">
-        <v>4.0318858973630074E-8</v>
+        <v>1.529179247590475E-8</v>
       </c>
       <c r="I42" t="n" s="280">
-        <v>4.435074487099308E-7</v>
+        <v>1.6820971723495225E-7</v>
       </c>
     </row>
     <row r="43">
@@ -4888,10 +4888,10 @@
         <v>63</v>
       </c>
       <c r="B43" t="n" s="273">
-        <v>1.2480132805961652</v>
+        <v>1.1398452370630092</v>
       </c>
       <c r="C43" t="n" s="274">
-        <v>121.99314628076863</v>
+        <v>112.37099827793541</v>
       </c>
       <c r="D43" t="n" s="275">
         <v>0.0</v>
@@ -4900,16 +4900,16 @@
         <v>0.0</v>
       </c>
       <c r="F43" t="n" s="277">
-        <v>1.9212081719750336</v>
+        <v>1.892876030751286</v>
       </c>
       <c r="G43" t="n" s="278">
-        <v>3.8375945095370962</v>
+        <v>3.7533899092802554</v>
       </c>
       <c r="H43" t="n" s="279">
-        <v>1.2424542227949822E-4</v>
+        <v>1.744591704342752E-4</v>
       </c>
       <c r="I43" t="n" s="280">
-        <v>8.697179559564876E-4</v>
+        <v>0.0012212141930399263</v>
       </c>
     </row>
     <row r="44">
